--- a/data/georgia_census/qvemo-qartli/gardabani/healthcare_staff.xlsx
+++ b/data/georgia_census/qvemo-qartli/gardabani/healthcare_staff.xlsx
@@ -1358,13 +1358,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0438AE0-F8AC-4F59-BEB7-6038ED61B60C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AAB9F4A-E19A-4C0D-A8F0-9784368F126E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06489292-6B55-4AEE-8519-171C6D05755F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A9087D-01AC-41A5-BE4A-30B8ACB8CA85}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1284B63A-0172-466D-A1E3-F686844156FB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B83865A-1147-4E0E-B4AC-21BD08829E93}"/>
 </file>